--- a/Documentos/Mediciones iniciales/Horno mediciones.xlsx
+++ b/Documentos/Mediciones iniciales/Horno mediciones.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="14055" windowHeight="4620" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="14055" windowHeight="4620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Ensayo sin placa  deflectora" sheetId="1" r:id="rId1"/>
     <sheet name="Ensayo con placa deflectora" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>Termocupla1</t>
   </si>
@@ -52,6 +53,18 @@
   <si>
     <t>marcos</t>
   </si>
+  <si>
+    <t>Promedio</t>
+  </si>
+  <si>
+    <t>Aproximacion</t>
+  </si>
+  <si>
+    <t>Real</t>
+  </si>
+  <si>
+    <t>Aproximacion con ganancia</t>
+  </si>
 </sst>
 </file>
 
@@ -74,15 +87,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor theme="6" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -90,18 +109,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1269,23 +1319,308 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="71706112"/>
-        <c:axId val="71707648"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ensayo sin placa  deflectora'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Promedio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ensayo sin placa  deflectora'!$A$2:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>410</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ensayo sin placa  deflectora'!$F$2:$F$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>16.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>81.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>128.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>153.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>177.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>187.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>207.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>215.25</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>222.75</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>236.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>241.75</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>247.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>257.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>261.25</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>270.25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>274.25</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>277.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>281.25</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>294.75</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>304.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>309.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>300.33333333333331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="71185152"/>
+        <c:axId val="71186688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="71706112"/>
+        <c:axId val="71185152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71707648"/>
+        <c:crossAx val="71186688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="71707648"/>
+        <c:axId val="71186688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1293,7 +1628,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71706112"/>
+        <c:crossAx val="71185152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1306,7 +1641,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2750,23 +3085,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="73115520"/>
-        <c:axId val="73117056"/>
+        <c:axId val="145933440"/>
+        <c:axId val="145934976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="73115520"/>
+        <c:axId val="145933440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73117056"/>
+        <c:crossAx val="145934976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="73117056"/>
+        <c:axId val="145934976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2774,7 +3109,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73115520"/>
+        <c:crossAx val="145933440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2787,7 +3122,898 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-AR"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Aproximacion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$2:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$2:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.01948839998289</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.995029200504518</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.983590241012053</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66.04255579327176</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80.225973733736254</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>93.584749525855813</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>106.16682892400939</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>118.01737005479379</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>129.17890549328595</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>139.69149491598267</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>149.5928688783024</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>158.91856423267814</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>167.70205167326867</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>175.9748558650561</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>183.76666858848318</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>191.1054553057163</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>198.01755553100878</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>204.52777736540236</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210.6594865350595</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>216.43469025279259</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>221.8741162037764</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>226.99728693892928</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>231.82258994296765</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>236.36734362861409</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>240.64785949381687</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>244.6795006650691</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>248.47673703694417</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>252.05319720574744</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>255.42171738367881</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>258.59438746906324</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>261.5825944379983</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>264.39706321315634</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>267.04789515642102</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>269.54460432351357</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>271.89615161072732</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>274.1109769163283</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>276.19702943204982</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>278.16179617340123</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>280.01232885118731</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$2:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$C$2:$C$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>16.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>81.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>128.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>153.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>177.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>187.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>207.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>215.25</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>222.75</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>236.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>241.75</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>247.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>257.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>261.25</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>270.25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>274.25</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>277.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>281.25</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>294.75</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>304.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>309.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Aproximacion con ganancia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$2:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$D$2:$D$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.821437239981179</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.494532120554972</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.081949265113259</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72.646811372598947</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>88.248571107109882</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>102.94322447844141</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>116.78351181641034</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>129.81910706027318</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>142.09679604261456</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>153.66064440758095</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>164.55215576613264</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>174.81042065594596</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>184.47225684059555</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>193.57234145156173</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>202.14333544733151</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>210.21600083628795</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>217.81931108410967</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>224.9805551019426</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>231.72543518856546</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>238.07815927807187</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>244.06152782415404</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>249.69701563282223</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>255.00484893726443</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260.00407799147553</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>264.7126454431986</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>269.14745073157604</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>273.3244107406386</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>277.25851692632222</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>280.96388912204674</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>284.45382621596957</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>287.74085388179816</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>290.83676953447201</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>293.75268467206314</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>296.49906475586494</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>299.08576677180008</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>301.52207460796114</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>303.81673237525484</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>305.97797579074137</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>308.01356173630609</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="49311744"/>
+        <c:axId val="49305856"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="49311744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="49305856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="49305856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="49311744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2797,13 +4023,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>85727</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>38101</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -2907,22 +4133,62 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="1 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="A1:E43" totalsRowShown="0">
-  <autoFilter ref="A1:E43"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="A1:F43" totalsRowShown="0">
+  <autoFilter ref="A1:F43">
+    <filterColumn colId="5"/>
+  </autoFilter>
+  <tableColumns count="6">
     <tableColumn id="1" name="Tiempo"/>
     <tableColumn id="2" name="Termocupla1"/>
     <tableColumn id="3" name="Termocupla2"/>
     <tableColumn id="4" name="Termocupla3"/>
     <tableColumn id="5" name="Termocupla5"/>
+    <tableColumn id="6" name="Promedio" dataDxfId="0">
+      <calculatedColumnFormula>AVERAGE(Tabla4[[#This Row],[Termocupla1]:[Termocupla5]])</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A1:F43" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A1:F43" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:F43"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Tiempo"/>
@@ -3221,18 +4487,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F2" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="5" width="14.5703125" customWidth="1"/>
+    <col min="2" max="6" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -3248,8 +4514,11 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3265,8 +4534,12 @@
       <c r="E2">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="5">
+        <f>AVERAGE(Tabla4[[#This Row],[Termocupla1]:[Termocupla5]])</f>
+        <v>16.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>10</v>
       </c>
@@ -3282,8 +4555,12 @@
       <c r="E3">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="5">
+        <f>AVERAGE(Tabla4[[#This Row],[Termocupla1]:[Termocupla5]])</f>
+        <v>17.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>20</v>
       </c>
@@ -3299,8 +4576,12 @@
       <c r="E4">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="5">
+        <f>AVERAGE(Tabla4[[#This Row],[Termocupla1]:[Termocupla5]])</f>
+        <v>21.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>30</v>
       </c>
@@ -3316,8 +4597,12 @@
       <c r="E5">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="5">
+        <f>AVERAGE(Tabla4[[#This Row],[Termocupla1]:[Termocupla5]])</f>
+        <v>27.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>40</v>
       </c>
@@ -3333,8 +4618,12 @@
       <c r="E6">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="5">
+        <f>AVERAGE(Tabla4[[#This Row],[Termocupla1]:[Termocupla5]])</f>
+        <v>36.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>50</v>
       </c>
@@ -3350,8 +4639,12 @@
       <c r="E7">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="5">
+        <f>AVERAGE(Tabla4[[#This Row],[Termocupla1]:[Termocupla5]])</f>
+        <v>44.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>60</v>
       </c>
@@ -3367,8 +4660,12 @@
       <c r="E8">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="5">
+        <f>AVERAGE(Tabla4[[#This Row],[Termocupla1]:[Termocupla5]])</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>70</v>
       </c>
@@ -3384,8 +4681,12 @@
       <c r="E9">
         <v>65</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="5">
+        <f>AVERAGE(Tabla4[[#This Row],[Termocupla1]:[Termocupla5]])</f>
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>80</v>
       </c>
@@ -3401,8 +4702,12 @@
       <c r="E10">
         <v>78</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="5">
+        <f>AVERAGE(Tabla4[[#This Row],[Termocupla1]:[Termocupla5]])</f>
+        <v>81.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>90</v>
       </c>
@@ -3418,8 +4723,12 @@
       <c r="E11">
         <v>90</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="5">
+        <f>AVERAGE(Tabla4[[#This Row],[Termocupla1]:[Termocupla5]])</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>100</v>
       </c>
@@ -3435,8 +4744,12 @@
       <c r="E12">
         <v>110</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" s="5">
+        <f>AVERAGE(Tabla4[[#This Row],[Termocupla1]:[Termocupla5]])</f>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>110</v>
       </c>
@@ -3452,8 +4765,12 @@
       <c r="E13">
         <v>131</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" s="5">
+        <f>AVERAGE(Tabla4[[#This Row],[Termocupla1]:[Termocupla5]])</f>
+        <v>128.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>120</v>
       </c>
@@ -3469,8 +4786,12 @@
       <c r="E14">
         <v>149</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" s="5">
+        <f>AVERAGE(Tabla4[[#This Row],[Termocupla1]:[Termocupla5]])</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>130</v>
       </c>
@@ -3486,8 +4807,12 @@
       <c r="E15">
         <v>165</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" s="5">
+        <f>AVERAGE(Tabla4[[#This Row],[Termocupla1]:[Termocupla5]])</f>
+        <v>153.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>140</v>
       </c>
@@ -3503,8 +4828,12 @@
       <c r="E16">
         <v>180</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="F16" s="5">
+        <f>AVERAGE(Tabla4[[#This Row],[Termocupla1]:[Termocupla5]])</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>150</v>
       </c>
@@ -3520,8 +4849,12 @@
       <c r="E17">
         <v>195</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="F17" s="5">
+        <f>AVERAGE(Tabla4[[#This Row],[Termocupla1]:[Termocupla5]])</f>
+        <v>177.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>160</v>
       </c>
@@ -3537,8 +4870,12 @@
       <c r="E18">
         <v>207</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="F18" s="5">
+        <f>AVERAGE(Tabla4[[#This Row],[Termocupla1]:[Termocupla5]])</f>
+        <v>187.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>170</v>
       </c>
@@ -3554,8 +4891,12 @@
       <c r="E19">
         <v>219</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="F19" s="5">
+        <f>AVERAGE(Tabla4[[#This Row],[Termocupla1]:[Termocupla5]])</f>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>180</v>
       </c>
@@ -3571,8 +4912,12 @@
       <c r="E20">
         <v>230</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="F20" s="5">
+        <f>AVERAGE(Tabla4[[#This Row],[Termocupla1]:[Termocupla5]])</f>
+        <v>207.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>190</v>
       </c>
@@ -3588,8 +4933,12 @@
       <c r="E21">
         <v>240</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="F21" s="5">
+        <f>AVERAGE(Tabla4[[#This Row],[Termocupla1]:[Termocupla5]])</f>
+        <v>215.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>200</v>
       </c>
@@ -3605,8 +4954,12 @@
       <c r="E22">
         <v>248</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="F22" s="5">
+        <f>AVERAGE(Tabla4[[#This Row],[Termocupla1]:[Termocupla5]])</f>
+        <v>222.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>210</v>
       </c>
@@ -3622,8 +4975,12 @@
       <c r="E23">
         <v>256</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="F23" s="5">
+        <f>AVERAGE(Tabla4[[#This Row],[Termocupla1]:[Termocupla5]])</f>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>220</v>
       </c>
@@ -3639,8 +4996,12 @@
       <c r="E24">
         <v>264</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="F24" s="5">
+        <f>AVERAGE(Tabla4[[#This Row],[Termocupla1]:[Termocupla5]])</f>
+        <v>236.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>230</v>
       </c>
@@ -3656,8 +5017,12 @@
       <c r="E25">
         <v>270</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="F25" s="5">
+        <f>AVERAGE(Tabla4[[#This Row],[Termocupla1]:[Termocupla5]])</f>
+        <v>241.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>240</v>
       </c>
@@ -3673,8 +5038,12 @@
       <c r="E26">
         <v>277</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="F26" s="5">
+        <f>AVERAGE(Tabla4[[#This Row],[Termocupla1]:[Termocupla5]])</f>
+        <v>247.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>250</v>
       </c>
@@ -3690,8 +5059,12 @@
       <c r="E27">
         <v>282</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="F27" s="5">
+        <f>AVERAGE(Tabla4[[#This Row],[Termocupla1]:[Termocupla5]])</f>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>260</v>
       </c>
@@ -3707,8 +5080,12 @@
       <c r="E28">
         <v>288</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="F28" s="5">
+        <f>AVERAGE(Tabla4[[#This Row],[Termocupla1]:[Termocupla5]])</f>
+        <v>257.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>270</v>
       </c>
@@ -3724,14 +5101,18 @@
       <c r="E29">
         <v>293</v>
       </c>
-      <c r="H29" t="s">
+      <c r="F29" s="5">
+        <f>AVERAGE(Tabla4[[#This Row],[Termocupla1]:[Termocupla5]])</f>
+        <v>261.25</v>
+      </c>
+      <c r="I29" t="s">
         <v>6</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>280</v>
       </c>
@@ -3747,8 +5128,12 @@
       <c r="E30">
         <v>297</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="F30" s="5">
+        <f>AVERAGE(Tabla4[[#This Row],[Termocupla1]:[Termocupla5]])</f>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>290</v>
       </c>
@@ -3764,8 +5149,12 @@
       <c r="E31">
         <v>301</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="F31" s="5">
+        <f>AVERAGE(Tabla4[[#This Row],[Termocupla1]:[Termocupla5]])</f>
+        <v>270.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>300</v>
       </c>
@@ -3781,8 +5170,12 @@
       <c r="E32">
         <v>305</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="F32" s="5">
+        <f>AVERAGE(Tabla4[[#This Row],[Termocupla1]:[Termocupla5]])</f>
+        <v>274.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>310</v>
       </c>
@@ -3798,8 +5191,12 @@
       <c r="E33">
         <v>310</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="F33" s="5">
+        <f>AVERAGE(Tabla4[[#This Row],[Termocupla1]:[Termocupla5]])</f>
+        <v>277.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>320</v>
       </c>
@@ -3815,11 +5212,15 @@
       <c r="E34">
         <v>313</v>
       </c>
-      <c r="H34" t="s">
+      <c r="F34" s="5">
+        <f>AVERAGE(Tabla4[[#This Row],[Termocupla1]:[Termocupla5]])</f>
+        <v>281.25</v>
+      </c>
+      <c r="I34" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>330</v>
       </c>
@@ -3835,8 +5236,12 @@
       <c r="E35">
         <v>318</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="F35" s="5">
+        <f>AVERAGE(Tabla4[[#This Row],[Termocupla1]:[Termocupla5]])</f>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>340</v>
       </c>
@@ -3852,11 +5257,15 @@
       <c r="E36">
         <v>320</v>
       </c>
-      <c r="H36" t="s">
+      <c r="F36" s="5">
+        <f>AVERAGE(Tabla4[[#This Row],[Termocupla1]:[Termocupla5]])</f>
+        <v>288</v>
+      </c>
+      <c r="I36" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>350</v>
       </c>
@@ -3872,11 +5281,15 @@
       <c r="E37">
         <v>327</v>
       </c>
-      <c r="H37" t="s">
+      <c r="F37" s="5">
+        <f>AVERAGE(Tabla4[[#This Row],[Termocupla1]:[Termocupla5]])</f>
+        <v>292</v>
+      </c>
+      <c r="I37" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>360</v>
       </c>
@@ -3892,11 +5305,15 @@
       <c r="E38">
         <v>330</v>
       </c>
-      <c r="H38" t="s">
+      <c r="F38" s="5">
+        <f>AVERAGE(Tabla4[[#This Row],[Termocupla1]:[Termocupla5]])</f>
+        <v>294.75</v>
+      </c>
+      <c r="I38" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>370</v>
       </c>
@@ -3912,8 +5329,12 @@
       <c r="E39">
         <v>334</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="F39" s="5">
+        <f>AVERAGE(Tabla4[[#This Row],[Termocupla1]:[Termocupla5]])</f>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>380</v>
       </c>
@@ -3929,8 +5350,12 @@
       <c r="E40">
         <v>336</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="F40" s="5">
+        <f>AVERAGE(Tabla4[[#This Row],[Termocupla1]:[Termocupla5]])</f>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>390</v>
       </c>
@@ -3946,8 +5371,12 @@
       <c r="E41">
         <v>339</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="F41" s="5">
+        <f>AVERAGE(Tabla4[[#This Row],[Termocupla1]:[Termocupla5]])</f>
+        <v>304.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>400</v>
       </c>
@@ -3963,8 +5392,12 @@
       <c r="E42">
         <v>347</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="F42" s="5">
+        <f>AVERAGE(Tabla4[[#This Row],[Termocupla1]:[Termocupla5]])</f>
+        <v>309.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>410</v>
       </c>
@@ -3976,6 +5409,10 @@
       </c>
       <c r="D43">
         <v>291</v>
+      </c>
+      <c r="F43" s="5">
+        <f>AVERAGE(Tabla4[[#This Row],[Termocupla1]:[Termocupla5]])</f>
+        <v>300.33333333333331</v>
       </c>
     </row>
   </sheetData>
@@ -3991,7 +5428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
@@ -4885,4 +6322,696 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>16.75</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D41" si="0">B2*1.1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>17.75</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <f>309.99-(329.13*EXP(-0.00599*A4))</f>
+        <v>18.01948839998289</v>
+      </c>
+      <c r="C4">
+        <v>21.75</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>19.821437239981179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ref="B5:B42" si="1">309.99-(329.13*EXP(-0.00599*A5))</f>
+        <v>34.995029200504518</v>
+      </c>
+      <c r="C5">
+        <v>27.75</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>38.494532120554972</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>50.983590241012053</v>
+      </c>
+      <c r="C6">
+        <v>36.25</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>56.081949265113259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>66.04255579327176</v>
+      </c>
+      <c r="C7">
+        <v>44.75</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>72.646811372598947</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4">
+        <v>60</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>80.225973733736254</v>
+      </c>
+      <c r="C8">
+        <v>56</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>88.248571107109882</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3">
+        <v>70</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>93.584749525855813</v>
+      </c>
+      <c r="C9">
+        <v>68.75</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>102.94322447844141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="4">
+        <v>80</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>106.16682892400939</v>
+      </c>
+      <c r="C10">
+        <v>81.5</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>116.78351181641034</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3">
+        <v>90</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>118.01737005479379</v>
+      </c>
+      <c r="C11">
+        <v>93</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>129.81910706027318</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="4">
+        <v>100</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>129.17890549328595</v>
+      </c>
+      <c r="C12">
+        <v>107</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>142.09679604261456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3">
+        <v>110</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>139.69149491598267</v>
+      </c>
+      <c r="C13">
+        <v>128.25</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>153.66064440758095</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="4">
+        <v>120</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>149.5928688783024</v>
+      </c>
+      <c r="C14">
+        <v>144</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>164.55215576613264</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3">
+        <v>130</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>158.91856423267814</v>
+      </c>
+      <c r="C15">
+        <v>153.75</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>174.81042065594596</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="4">
+        <v>140</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>167.70205167326867</v>
+      </c>
+      <c r="C16">
+        <v>165</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>184.47225684059555</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3">
+        <v>150</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>175.9748558650561</v>
+      </c>
+      <c r="C17">
+        <v>177.5</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>193.57234145156173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="4">
+        <v>160</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>183.76666858848318</v>
+      </c>
+      <c r="C18">
+        <v>187.5</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>202.14333544733151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3">
+        <v>170</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>191.1054553057163</v>
+      </c>
+      <c r="C19">
+        <v>198</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>210.21600083628795</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="4">
+        <v>180</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>198.01755553100878</v>
+      </c>
+      <c r="C20">
+        <v>207.25</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>217.81931108410967</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3">
+        <v>190</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>204.52777736540236</v>
+      </c>
+      <c r="C21">
+        <v>215.25</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>224.9805551019426</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="4">
+        <v>200</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>210.6594865350595</v>
+      </c>
+      <c r="C22">
+        <v>222.75</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>231.72543518856546</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3">
+        <v>210</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>216.43469025279259</v>
+      </c>
+      <c r="C23">
+        <v>230</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>238.07815927807187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="4">
+        <v>220</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>221.8741162037764</v>
+      </c>
+      <c r="C24">
+        <v>236.5</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>244.06152782415404</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3">
+        <v>230</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>226.99728693892928</v>
+      </c>
+      <c r="C25">
+        <v>241.75</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>249.69701563282223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="4">
+        <v>240</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>231.82258994296765</v>
+      </c>
+      <c r="C26">
+        <v>247.25</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>255.00484893726443</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3">
+        <v>250</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="1"/>
+        <v>236.36734362861409</v>
+      </c>
+      <c r="C27">
+        <v>252</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>260.00407799147553</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="4">
+        <v>260</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="1"/>
+        <v>240.64785949381687</v>
+      </c>
+      <c r="C28">
+        <v>257.5</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>264.7126454431986</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="3">
+        <v>270</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="1"/>
+        <v>244.6795006650691</v>
+      </c>
+      <c r="C29">
+        <v>261.25</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>269.14745073157604</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="4">
+        <v>280</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="1"/>
+        <v>248.47673703694417</v>
+      </c>
+      <c r="C30">
+        <v>265</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>273.3244107406386</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3">
+        <v>290</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="1"/>
+        <v>252.05319720574744</v>
+      </c>
+      <c r="C31">
+        <v>270.25</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>277.25851692632222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="4">
+        <v>300</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="1"/>
+        <v>255.42171738367881</v>
+      </c>
+      <c r="C32">
+        <v>274.25</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>280.96388912204674</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3">
+        <v>310</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="1"/>
+        <v>258.59438746906324</v>
+      </c>
+      <c r="C33">
+        <v>277.5</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>284.45382621596957</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="4">
+        <v>320</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="1"/>
+        <v>261.5825944379983</v>
+      </c>
+      <c r="C34">
+        <v>281.25</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>287.74085388179816</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3">
+        <v>330</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="1"/>
+        <v>264.39706321315634</v>
+      </c>
+      <c r="C35">
+        <v>285</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>290.83676953447201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="4">
+        <v>340</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="1"/>
+        <v>267.04789515642102</v>
+      </c>
+      <c r="C36">
+        <v>288</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>293.75268467206314</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="3">
+        <v>350</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="1"/>
+        <v>269.54460432351357</v>
+      </c>
+      <c r="C37">
+        <v>292</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>296.49906475586494</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="4">
+        <v>360</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="1"/>
+        <v>271.89615161072732</v>
+      </c>
+      <c r="C38">
+        <v>294.75</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>299.08576677180008</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3">
+        <v>370</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="1"/>
+        <v>274.1109769163283</v>
+      </c>
+      <c r="C39">
+        <v>299</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>301.52207460796114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="4">
+        <v>380</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="1"/>
+        <v>276.19702943204982</v>
+      </c>
+      <c r="C40">
+        <v>302</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>303.81673237525484</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="3">
+        <v>390</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="1"/>
+        <v>278.16179617340123</v>
+      </c>
+      <c r="C41">
+        <v>304.5</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>305.97797579074137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="4">
+        <v>400</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="1"/>
+        <v>280.01232885118731</v>
+      </c>
+      <c r="C42">
+        <v>309.5</v>
+      </c>
+      <c r="D42">
+        <f>B42*1.1</f>
+        <v>308.01356173630609</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>